--- a/Copy of testcase(878).xlsx
+++ b/Copy of testcase(878).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -274,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,6 +288,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -344,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,9 +386,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -604,7 +616,7 @@
     <col min="10" max="10" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -673,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -700,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -729,7 +741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="90">
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -755,17 +767,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75">
-      <c r="A7">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F7" t="s">
@@ -781,17 +794,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F8" t="s">
@@ -807,17 +821,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F9" t="s">
@@ -833,17 +848,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F10" t="s">
@@ -859,17 +875,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F11" t="s">
@@ -885,17 +902,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
-      <c r="A12">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F12" t="s">
@@ -911,13 +929,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
